--- a/Clase 4/Ejercicio6y7.xlsx
+++ b/Clase 4/Ejercicio6y7.xlsx
@@ -128,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +150,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -196,6 +202,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:AA1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,83 +516,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14">
         <v>0</v>
       </c>
-      <c r="E1" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1">
+      <c r="E1" s="14">
+        <v>1</v>
+      </c>
+      <c r="F1" s="14">
+        <v>2</v>
+      </c>
+      <c r="G1" s="14">
+        <v>3</v>
+      </c>
+      <c r="H1" s="14">
+        <v>4</v>
+      </c>
+      <c r="I1" s="14">
+        <v>5</v>
+      </c>
+      <c r="J1" s="14">
         <v>6</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="14">
         <v>7</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="14">
         <v>8</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="14">
         <v>9</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="14">
         <v>10</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="14">
         <v>11</v>
       </c>
-      <c r="P1" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1">
+      <c r="P1" s="14">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="14">
         <v>13</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="14">
         <v>14</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="14">
         <v>15</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="14">
         <v>16</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="14">
         <v>17</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="14">
         <v>18</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="14">
         <v>19</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="14">
         <v>20</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1" t="s">
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -872,83 +879,83 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1">
-        <v>5</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>2</v>
+      </c>
+      <c r="G10" s="14">
+        <v>3</v>
+      </c>
+      <c r="H10" s="14">
+        <v>4</v>
+      </c>
+      <c r="I10" s="14">
+        <v>5</v>
+      </c>
+      <c r="J10" s="14">
         <v>6</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="14">
         <v>7</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="14">
         <v>8</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="14">
         <v>9</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="14">
         <v>10</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="14">
         <v>11</v>
       </c>
-      <c r="P10" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="1">
+      <c r="P10" s="14">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="14">
         <v>13</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="14">
         <v>14</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="14">
         <v>15</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="14">
         <v>16</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="14">
         <v>17</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="14">
         <v>18</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="14">
         <v>19</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10" s="14">
         <v>20</v>
       </c>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1" t="s">
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AA10" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1239,83 +1246,83 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14">
         <v>0</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4</v>
-      </c>
-      <c r="I19" s="1">
-        <v>5</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14">
+        <v>2</v>
+      </c>
+      <c r="G19" s="14">
+        <v>3</v>
+      </c>
+      <c r="H19" s="14">
+        <v>4</v>
+      </c>
+      <c r="I19" s="14">
+        <v>5</v>
+      </c>
+      <c r="J19" s="14">
         <v>6</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="14">
         <v>7</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="14">
         <v>8</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="14">
         <v>9</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="14">
         <v>10</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="14">
         <v>11</v>
       </c>
-      <c r="P19" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="1">
+      <c r="P19" s="14">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="14">
         <v>13</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="14">
         <v>14</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="14">
         <v>15</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="14">
         <v>16</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="14">
         <v>17</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="14">
         <v>18</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19" s="14">
         <v>19</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="14">
         <v>20</v>
       </c>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1" t="s">
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AA19" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1576,83 +1583,83 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="14">
         <v>0</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2</v>
-      </c>
-      <c r="G29" s="1">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3">
-        <v>4</v>
-      </c>
-      <c r="I29" s="2">
-        <v>5</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="E29" s="14">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14">
+        <v>2</v>
+      </c>
+      <c r="G29" s="14">
+        <v>3</v>
+      </c>
+      <c r="H29" s="14">
+        <v>4</v>
+      </c>
+      <c r="I29" s="14">
+        <v>5</v>
+      </c>
+      <c r="J29" s="14">
         <v>6</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="14">
         <v>7</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="14">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="14">
         <v>9</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="14">
         <v>10</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="14">
         <v>11</v>
       </c>
-      <c r="P29" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="1">
+      <c r="P29" s="14">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="14">
         <v>13</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="14">
         <v>14</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="14">
         <v>15</v>
       </c>
-      <c r="T29" s="1">
+      <c r="T29" s="14">
         <v>16</v>
       </c>
-      <c r="U29" s="2">
+      <c r="U29" s="14">
         <v>17</v>
       </c>
-      <c r="V29" s="1">
+      <c r="V29" s="14">
         <v>18</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="14">
         <v>19</v>
       </c>
-      <c r="X29" s="1">
+      <c r="X29" s="14">
         <v>20</v>
       </c>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1" t="s">
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AA29" s="1" t="s">
+      <c r="AA29" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1963,83 +1970,83 @@
       <c r="B38" s="13"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="B39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="14">
         <v>0</v>
       </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2</v>
-      </c>
-      <c r="G39" s="1">
-        <v>3</v>
-      </c>
-      <c r="H39" s="1">
-        <v>4</v>
-      </c>
-      <c r="I39" s="1">
-        <v>5</v>
-      </c>
-      <c r="J39" s="1">
+      <c r="E39" s="14">
+        <v>1</v>
+      </c>
+      <c r="F39" s="14">
+        <v>2</v>
+      </c>
+      <c r="G39" s="14">
+        <v>3</v>
+      </c>
+      <c r="H39" s="14">
+        <v>4</v>
+      </c>
+      <c r="I39" s="14">
+        <v>5</v>
+      </c>
+      <c r="J39" s="14">
         <v>6</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="14">
         <v>7</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="14">
         <v>8</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="14">
         <v>9</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39" s="14">
         <v>10</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="14">
         <v>11</v>
       </c>
-      <c r="P39" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q39" s="1">
+      <c r="P39" s="14">
+        <v>12</v>
+      </c>
+      <c r="Q39" s="14">
         <v>13</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39" s="14">
         <v>14</v>
       </c>
-      <c r="S39" s="1">
+      <c r="S39" s="14">
         <v>15</v>
       </c>
-      <c r="T39" s="1">
+      <c r="T39" s="14">
         <v>16</v>
       </c>
-      <c r="U39" s="1">
+      <c r="U39" s="14">
         <v>17</v>
       </c>
-      <c r="V39" s="1">
+      <c r="V39" s="14">
         <v>18</v>
       </c>
-      <c r="W39" s="1">
+      <c r="W39" s="14">
         <v>19</v>
       </c>
-      <c r="X39" s="1">
+      <c r="X39" s="14">
         <v>20</v>
       </c>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1" t="s">
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AA39" s="1" t="s">
+      <c r="AA39" s="14" t="s">
         <v>11</v>
       </c>
     </row>
